--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="247">
   <si>
     <t/>
   </si>
@@ -59,445 +59,700 @@
     <t>Квартира</t>
   </si>
   <si>
-    <t>Fiona</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Геннадиевна</t>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Фролов</t>
+  </si>
+  <si>
+    <t>Константинович</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>20-10-1944</t>
+  </si>
+  <si>
+    <t>772676935229</t>
+  </si>
+  <si>
+    <t>138180</t>
+  </si>
+  <si>
+    <t>Доминиканская Республика</t>
+  </si>
+  <si>
+    <t>Ивановская область</t>
+  </si>
+  <si>
+    <t>Сан-Франциско</t>
+  </si>
+  <si>
+    <t>Мясницкая</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Прохорова</t>
+  </si>
+  <si>
+    <t>﻿Александровна</t>
   </si>
   <si>
     <t>Ж</t>
   </si>
   <si>
-    <t>28-09-1973</t>
-  </si>
-  <si>
-    <t>772870720263</t>
-  </si>
-  <si>
-    <t>103093</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Рязанская область</t>
-  </si>
-  <si>
-    <t>Monaghan</t>
-  </si>
-  <si>
-    <t>7392 Manor road</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Arias</t>
-  </si>
-  <si>
-    <t>Макарович</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>13-11-1960</t>
-  </si>
-  <si>
-    <t>774740352710</t>
-  </si>
-  <si>
-    <t>115114</t>
-  </si>
-  <si>
-    <t>Беларусь</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан</t>
-  </si>
-  <si>
-    <t>Málaga</t>
-  </si>
-  <si>
-    <t>1741 Calle del prado</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Романович</t>
-  </si>
-  <si>
-    <t>30-01-1978</t>
-  </si>
-  <si>
-    <t>770145968705</t>
-  </si>
-  <si>
-    <t>110522</t>
+    <t>19-10-1964</t>
+  </si>
+  <si>
+    <t>770931766828</t>
+  </si>
+  <si>
+    <t>160084</t>
+  </si>
+  <si>
+    <t>Тунис</t>
+  </si>
+  <si>
+    <t>Ненецкий автономный округ</t>
+  </si>
+  <si>
+    <t>Шанхай</t>
+  </si>
+  <si>
+    <t>Лермонтовская площадь</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Симонова</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>28-06-2006</t>
+  </si>
+  <si>
+    <t>772091292299</t>
+  </si>
+  <si>
+    <t>104902</t>
+  </si>
+  <si>
+    <t>Эстония</t>
+  </si>
+  <si>
+    <t>Саратовская область</t>
+  </si>
+  <si>
+    <t>Торонто</t>
+  </si>
+  <si>
+    <t>Арбатские ворота площадь</t>
+  </si>
+  <si>
+    <t>Тихон</t>
+  </si>
+  <si>
+    <t>Титов</t>
+  </si>
+  <si>
+    <t>Витальевич</t>
+  </si>
+  <si>
+    <t>30-06-1992</t>
+  </si>
+  <si>
+    <t>772071558582</t>
+  </si>
+  <si>
+    <t>190895</t>
+  </si>
+  <si>
+    <t>Мальдивы</t>
+  </si>
+  <si>
+    <t>г. Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Марракеш</t>
+  </si>
+  <si>
+    <t>Лучников переулок</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>Волощук</t>
+  </si>
+  <si>
+    <t>Вячеславовна</t>
+  </si>
+  <si>
+    <t>30-05-1985</t>
+  </si>
+  <si>
+    <t>772520661597</t>
+  </si>
+  <si>
+    <t>111353</t>
+  </si>
+  <si>
+    <t>Австрия</t>
+  </si>
+  <si>
+    <t>Республика Коми</t>
+  </si>
+  <si>
+    <t>Карловы Вары</t>
+  </si>
+  <si>
+    <t>Ильинские ворота площадь</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>Безрукова</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
+    <t>13-03-1978</t>
+  </si>
+  <si>
+    <t>770467920810</t>
+  </si>
+  <si>
+    <t>183401</t>
+  </si>
+  <si>
+    <t>Барбадос</t>
+  </si>
+  <si>
+    <t>Мурманская область</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>﻿Арбат</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>Чернышова</t>
+  </si>
+  <si>
+    <t>Матвеевна</t>
+  </si>
+  <si>
+    <t>27-03-2007</t>
+  </si>
+  <si>
+    <t>770986866162</t>
+  </si>
+  <si>
+    <t>191675</t>
+  </si>
+  <si>
+    <t>Бангладеш</t>
+  </si>
+  <si>
+    <t>Самарская область</t>
+  </si>
+  <si>
+    <t>Чикаго</t>
+  </si>
+  <si>
+    <t>Даниэль</t>
+  </si>
+  <si>
+    <t>Кириллов</t>
+  </si>
+  <si>
+    <t>Борисович</t>
+  </si>
+  <si>
+    <t>01-09-1975</t>
+  </si>
+  <si>
+    <t>771003144704</t>
+  </si>
+  <si>
+    <t>138219</t>
+  </si>
+  <si>
+    <t>Кувейт</t>
+  </si>
+  <si>
+    <t>Нью-Йорк</t>
+  </si>
+  <si>
+    <t>Потаповский переулок</t>
+  </si>
+  <si>
+    <t>Кира</t>
+  </si>
+  <si>
+    <t>Никитина</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>10-03-1934</t>
+  </si>
+  <si>
+    <t>774722210576</t>
+  </si>
+  <si>
+    <t>103833</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t>Республика Татарстан (Татарстан)</t>
+  </si>
+  <si>
+    <t>Одесса</t>
+  </si>
+  <si>
+    <t>Хохловская площадь</t>
+  </si>
+  <si>
+    <t>Ильдар</t>
+  </si>
+  <si>
+    <t>Осипов</t>
+  </si>
+  <si>
+    <t>Егорович</t>
+  </si>
+  <si>
+    <t>13-04-1929</t>
+  </si>
+  <si>
+    <t>774379548622</t>
+  </si>
+  <si>
+    <t>157485</t>
+  </si>
+  <si>
+    <t>Ирландия</t>
+  </si>
+  <si>
+    <t>Сахалинская область</t>
+  </si>
+  <si>
+    <t>Хельсинки</t>
+  </si>
+  <si>
+    <t>Пушкарёв переулок</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Артемович</t>
+  </si>
+  <si>
+    <t>06-11-2005</t>
+  </si>
+  <si>
+    <t>771432443238</t>
+  </si>
+  <si>
+    <t>118322</t>
+  </si>
+  <si>
+    <t>Филиппины</t>
+  </si>
+  <si>
+    <t>Еврейская автономная область</t>
+  </si>
+  <si>
+    <t>Ереван</t>
+  </si>
+  <si>
+    <t>Фролов переулок</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Герасимов</t>
+  </si>
+  <si>
+    <t>Валентинович</t>
+  </si>
+  <si>
+    <t>07-02-1950</t>
+  </si>
+  <si>
+    <t>770471349452</t>
+  </si>
+  <si>
+    <t>104393</t>
+  </si>
+  <si>
+    <t>Черногория</t>
+  </si>
+  <si>
+    <t>﻿Алма-Ата</t>
+  </si>
+  <si>
+    <t>Трубная</t>
+  </si>
+  <si>
+    <t>Лиана</t>
+  </si>
+  <si>
+    <t>Чайковская</t>
+  </si>
+  <si>
+    <t>Степановна</t>
+  </si>
+  <si>
+    <t>25-10-1922</t>
+  </si>
+  <si>
+    <t>771076622906</t>
+  </si>
+  <si>
+    <t>118726</t>
+  </si>
+  <si>
+    <t>Багамы</t>
+  </si>
+  <si>
+    <t>Чукотский автономный округ</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Полянка Большая</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Михайлов</t>
+  </si>
+  <si>
+    <t>Вадимович</t>
+  </si>
+  <si>
+    <t>02-04-2012</t>
+  </si>
+  <si>
+    <t>773315140360</t>
+  </si>
+  <si>
+    <t>195966</t>
   </si>
   <si>
     <t>Франция</t>
   </si>
   <si>
-    <t>Красноярский край</t>
-  </si>
-  <si>
-    <t>Belen</t>
-  </si>
-  <si>
-    <t>5585 Central st</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Holmes</t>
-  </si>
-  <si>
-    <t>Степановна</t>
-  </si>
-  <si>
-    <t>30-06-1948</t>
-  </si>
-  <si>
-    <t>772651748509</t>
-  </si>
-  <si>
-    <t>191810</t>
-  </si>
-  <si>
-    <t>Бермуды</t>
-  </si>
-  <si>
-    <t>Республика Ингушетия</t>
-  </si>
-  <si>
-    <t>Bellevue</t>
-  </si>
-  <si>
-    <t>3876 Ranchview dr</t>
-  </si>
-  <si>
-    <t>Giray</t>
-  </si>
-  <si>
-    <t>Kılıççı</t>
-  </si>
-  <si>
-    <t>Евгеньевич</t>
-  </si>
-  <si>
-    <t>30-04-1958</t>
-  </si>
-  <si>
-    <t>773658878227</t>
-  </si>
-  <si>
-    <t>182048</t>
+    <t>Республика Карелия</t>
+  </si>
+  <si>
+    <t>Монреаль</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Шмидт</t>
+  </si>
+  <si>
+    <t>Антонович</t>
+  </si>
+  <si>
+    <t>07-11-1949</t>
+  </si>
+  <si>
+    <t>773464479216</t>
+  </si>
+  <si>
+    <t>172307</t>
+  </si>
+  <si>
+    <t>Латвия</t>
+  </si>
+  <si>
+    <t>Республика Марий Эл</t>
+  </si>
+  <si>
+    <t>Амстердам</t>
+  </si>
+  <si>
+    <t>Казённый Малый переулок</t>
+  </si>
+  <si>
+    <t>Милана</t>
+  </si>
+  <si>
+    <t>Третьякова</t>
+  </si>
+  <si>
+    <t>03-07-1920</t>
+  </si>
+  <si>
+    <t>771330821120</t>
+  </si>
+  <si>
+    <t>103557</t>
+  </si>
+  <si>
+    <t>Финляндия</t>
+  </si>
+  <si>
+    <t>Чувашская Республика - Чувашия</t>
+  </si>
+  <si>
+    <t>Каир</t>
+  </si>
+  <si>
+    <t>Петровский бульвар</t>
+  </si>
+  <si>
+    <t>Филипп</t>
+  </si>
+  <si>
+    <t>Савельев</t>
+  </si>
+  <si>
+    <t>Платонович</t>
+  </si>
+  <si>
+    <t>31-08-2001</t>
+  </si>
+  <si>
+    <t>771419682325</t>
+  </si>
+  <si>
+    <t>158835</t>
+  </si>
+  <si>
+    <t>Ливан</t>
+  </si>
+  <si>
+    <t>Тульская область</t>
+  </si>
+  <si>
+    <t>Барселона</t>
+  </si>
+  <si>
+    <t>Просвирин переулок</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Тарасова</t>
+  </si>
+  <si>
+    <t>24-11-1930</t>
+  </si>
+  <si>
+    <t>772270534843</t>
+  </si>
+  <si>
+    <t>154606</t>
+  </si>
+  <si>
+    <t>Аргентина</t>
+  </si>
+  <si>
+    <t>Республика Крым</t>
+  </si>
+  <si>
+    <t>Мельбурн</t>
+  </si>
+  <si>
+    <t>Лялин переулок</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Ушаков</t>
+  </si>
+  <si>
+    <t>Арсеньевич</t>
+  </si>
+  <si>
+    <t>13-08-1981</t>
+  </si>
+  <si>
+    <t>770224658329</t>
+  </si>
+  <si>
+    <t>183807</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>﻿Алтайский край</t>
+  </si>
+  <si>
+    <t>Венеция</t>
+  </si>
+  <si>
+    <t>Фуркасовский переулок</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>Чистяков</t>
+  </si>
+  <si>
+    <t>Феликсович</t>
+  </si>
+  <si>
+    <t>15-05-1959</t>
+  </si>
+  <si>
+    <t>773123789345</t>
+  </si>
+  <si>
+    <t>182650</t>
+  </si>
+  <si>
+    <t>Мальта</t>
+  </si>
+  <si>
+    <t>Курганская область</t>
+  </si>
+  <si>
+    <t>Майами</t>
+  </si>
+  <si>
+    <t>Воздвиженка</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Тимофеев</t>
+  </si>
+  <si>
+    <t>Ильич</t>
+  </si>
+  <si>
+    <t>26-09-1937</t>
+  </si>
+  <si>
+    <t>771480335592</t>
+  </si>
+  <si>
+    <t>102526</t>
+  </si>
+  <si>
+    <t>Казахстан</t>
+  </si>
+  <si>
+    <t>Калининградская область</t>
+  </si>
+  <si>
+    <t>Дрезден</t>
+  </si>
+  <si>
+    <t>Бронная Малая</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Сафарова</t>
+  </si>
+  <si>
+    <t>Фелuксовна</t>
+  </si>
+  <si>
+    <t>06-04-1967</t>
+  </si>
+  <si>
+    <t>773145025209</t>
+  </si>
+  <si>
+    <t>131519</t>
   </si>
   <si>
     <t>Армения</t>
   </si>
   <si>
-    <t>Краснодарский край</t>
-  </si>
-  <si>
-    <t>Sinop</t>
-  </si>
-  <si>
-    <t>2070 Mevlana cd</t>
-  </si>
-  <si>
-    <t>Nooa</t>
-  </si>
-  <si>
-    <t>Tuomala</t>
-  </si>
-  <si>
-    <t>Эдуардович</t>
-  </si>
-  <si>
-    <t>18-08-1951</t>
-  </si>
-  <si>
-    <t>772141747956</t>
-  </si>
-  <si>
-    <t>151533</t>
-  </si>
-  <si>
-    <t>Сербия</t>
-  </si>
-  <si>
-    <t>г. Москва</t>
-  </si>
-  <si>
-    <t>Laitila</t>
-  </si>
-  <si>
-    <t>8364 Bulevardi</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>Романовна</t>
-  </si>
-  <si>
-    <t>20-05-1981</t>
-  </si>
-  <si>
-    <t>772941531956</t>
-  </si>
-  <si>
-    <t>131675</t>
-  </si>
-  <si>
-    <t>Уругвай</t>
-  </si>
-  <si>
-    <t>Республика Бурятия</t>
-  </si>
-  <si>
-    <t>Greymouth</t>
-  </si>
-  <si>
-    <t>7141 Broadway</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Hughes</t>
-  </si>
-  <si>
-    <t>Глебович</t>
-  </si>
-  <si>
-    <t>26-03-1971</t>
-  </si>
-  <si>
-    <t>773581936473</t>
-  </si>
-  <si>
-    <t>117323</t>
-  </si>
-  <si>
-    <t>Бразилия</t>
-  </si>
-  <si>
-    <t>Республика Мордовия</t>
-  </si>
-  <si>
-    <t>871 Brockville road</t>
-  </si>
-  <si>
-    <t>Kerttu</t>
-  </si>
-  <si>
-    <t>Jarvi</t>
-  </si>
-  <si>
-    <t>Фелuксовна</t>
-  </si>
-  <si>
-    <t>21-08-1962</t>
-  </si>
-  <si>
-    <t>771558358990</t>
-  </si>
-  <si>
-    <t>149378</t>
-  </si>
-  <si>
-    <t>Камерун</t>
-  </si>
-  <si>
-    <t>Курская область</t>
-  </si>
-  <si>
-    <t>Iisalmi</t>
-  </si>
-  <si>
-    <t>1150 Verkatehtaankatu</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Chevalier</t>
-  </si>
-  <si>
-    <t>Ильинична</t>
-  </si>
-  <si>
-    <t>09-03-1991</t>
-  </si>
-  <si>
-    <t>771903840140</t>
-  </si>
-  <si>
-    <t>141560</t>
-  </si>
-  <si>
-    <t>Люксембург</t>
-  </si>
-  <si>
-    <t>Приморский край</t>
-  </si>
-  <si>
-    <t>La sagne</t>
-  </si>
-  <si>
-    <t>707 Avenue de la libération</t>
-  </si>
-  <si>
-    <t>Lars</t>
-  </si>
-  <si>
-    <t>Schley</t>
-  </si>
-  <si>
-    <t>Феликсович</t>
-  </si>
-  <si>
-    <t>11-04-1984</t>
-  </si>
-  <si>
-    <t>771800001249</t>
-  </si>
-  <si>
-    <t>132688</t>
-  </si>
-  <si>
-    <t>Португалия</t>
-  </si>
-  <si>
-    <t>Olching</t>
-  </si>
-  <si>
-    <t>Kastanienweg 64</t>
-  </si>
-  <si>
-    <t>Julius</t>
-  </si>
-  <si>
-    <t>Raisanen</t>
-  </si>
-  <si>
-    <t>Георгиевич</t>
-  </si>
-  <si>
-    <t>26-06-1970</t>
-  </si>
-  <si>
-    <t>771934967500</t>
-  </si>
-  <si>
-    <t>135941</t>
-  </si>
-  <si>
-    <t>Эквадор</t>
-  </si>
-  <si>
-    <t>Республика Адыгея (Адыгея)</t>
-  </si>
-  <si>
-    <t>Ylöjärvi</t>
-  </si>
-  <si>
-    <t>6294 Tahmelantie</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>Hanson</t>
-  </si>
-  <si>
-    <t>Ефимовна</t>
-  </si>
-  <si>
-    <t>09-03-1976</t>
-  </si>
-  <si>
-    <t>773461185715</t>
-  </si>
-  <si>
-    <t>166982</t>
-  </si>
-  <si>
-    <t>Польша</t>
-  </si>
-  <si>
-    <t>Волгоградская область</t>
-  </si>
-  <si>
-    <t>Victorville</t>
-  </si>
-  <si>
-    <t>1104 Mockingbird ln</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Snyder</t>
-  </si>
-  <si>
-    <t>Георгиевна</t>
-  </si>
-  <si>
-    <t>08-12-1954</t>
-  </si>
-  <si>
-    <t>771783468873</t>
-  </si>
-  <si>
-    <t>197444</t>
-  </si>
-  <si>
-    <t>Румыния</t>
-  </si>
-  <si>
-    <t>Tramore</t>
-  </si>
-  <si>
-    <t>3971 Rookery road</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Solum</t>
-  </si>
-  <si>
-    <t>16-01-1960</t>
-  </si>
-  <si>
-    <t>774310212743</t>
-  </si>
-  <si>
-    <t>137666</t>
-  </si>
-  <si>
-    <t>Куба</t>
-  </si>
-  <si>
-    <t>Poverudbyen</t>
-  </si>
-  <si>
-    <t>Brynsengveien 9519</t>
+    <t>Удмуртская Республика</t>
+  </si>
+  <si>
+    <t>Милан</t>
+  </si>
+  <si>
+    <t>Трёхсвятительский Б. переулок</t>
+  </si>
+  <si>
+    <t>Есения</t>
+  </si>
+  <si>
+    <t>Руденко</t>
+  </si>
+  <si>
+    <t>Владиславовна</t>
+  </si>
+  <si>
+    <t>01-03-1997</t>
+  </si>
+  <si>
+    <t>771552529920</t>
+  </si>
+  <si>
+    <t>170494</t>
+  </si>
+  <si>
+    <t>Чехия</t>
+  </si>
+  <si>
+    <t>Куала-Лумпур</t>
+  </si>
+  <si>
+    <t>Шульц</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>15-10-2013</t>
+  </si>
+  <si>
+    <t>772087369823</t>
+  </si>
+  <si>
+    <t>166563</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t>Сеул</t>
+  </si>
+  <si>
+    <t>Армянский переулок</t>
   </si>
 </sst>
 </file>
@@ -548,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -609,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -636,10 +891,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>42.0</v>
+        <v>84.0</v>
       </c>
       <c r="N2" t="n">
-        <v>184.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
@@ -653,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>58.0</v>
+        <v>54.0</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -680,10 +935,10 @@
         <v>36</v>
       </c>
       <c r="M3" t="n">
-        <v>85.0</v>
+        <v>94.0</v>
       </c>
       <c r="N3" t="n">
-        <v>122.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="4">
@@ -697,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -724,10 +979,10 @@
         <v>46</v>
       </c>
       <c r="M4" t="n">
-        <v>130.0</v>
+        <v>32.0</v>
       </c>
       <c r="N4" t="n">
-        <v>242.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="5">
@@ -741,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>70.0</v>
+        <v>26.0</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -768,10 +1023,10 @@
         <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="N5" t="n">
-        <v>295.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="6">
@@ -785,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>60.0</v>
+        <v>33.0</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -812,10 +1067,10 @@
         <v>66</v>
       </c>
       <c r="M6" t="n">
-        <v>27.0</v>
+        <v>104.0</v>
       </c>
       <c r="N6" t="n">
-        <v>158.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +1084,7 @@
         <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>67.0</v>
+        <v>40.0</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -856,10 +1111,10 @@
         <v>76</v>
       </c>
       <c r="M7" t="n">
-        <v>55.0</v>
+        <v>64.0</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="8">
@@ -873,10 +1128,10 @@
         <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>37.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -897,177 +1152,177 @@
         <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M8" t="n">
-        <v>134.0</v>
+        <v>80.0</v>
       </c>
       <c r="N8" t="n">
-        <v>184.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>91</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
       <c r="M9" t="n">
-        <v>135.0</v>
+        <v>79.0</v>
       </c>
       <c r="N9" t="n">
-        <v>57.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>98</v>
       </c>
-      <c r="D10" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>100</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>101</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>104</v>
       </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
       <c r="M10" t="n">
-        <v>102.0</v>
+        <v>107.0</v>
       </c>
       <c r="N10" t="n">
-        <v>286.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" t="n">
-        <v>28.0</v>
+        <v>89.0</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>110</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>111</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>113</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>114</v>
       </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
       <c r="M11" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="N11" t="n">
-        <v>48.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>120</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>121</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
       </c>
       <c r="K12" t="s">
         <v>123</v>
@@ -1076,10 +1331,10 @@
         <v>124</v>
       </c>
       <c r="M12" t="n">
-        <v>29.0</v>
+        <v>85.0</v>
       </c>
       <c r="N12" t="n">
-        <v>220.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="13">
@@ -1093,10 +1348,10 @@
         <v>127</v>
       </c>
       <c r="D13" t="n">
-        <v>48.0</v>
+        <v>69.0</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>128</v>
@@ -1111,121 +1366,121 @@
         <v>131</v>
       </c>
       <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
       <c r="M13" t="n">
-        <v>144.0</v>
+        <v>16.0</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0</v>
+        <v>261.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>136</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>139</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>140</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
       <c r="M14" t="n">
-        <v>100.0</v>
+        <v>140.0</v>
       </c>
       <c r="N14" t="n">
-        <v>67.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
       <c r="D15" t="n">
-        <v>64.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>149</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>150</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>151</v>
-      </c>
-      <c r="J15" t="s">
-        <v>64</v>
       </c>
       <c r="K15" t="s">
         <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
-        <v>142.0</v>
+        <v>24.0</v>
       </c>
       <c r="N15" t="n">
-        <v>179.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
         <v>154</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>155</v>
       </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
       <c r="D16" t="n">
-        <v>59.0</v>
+        <v>69.0</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1243,19 +1498,415 @@
         <v>159</v>
       </c>
       <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>167.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>197.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
         <v>74</v>
       </c>
-      <c r="K16" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>220.0</v>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>179.0</v>
       </c>
     </row>
   </sheetData>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
   <si>
     <t/>
   </si>
@@ -59,127 +59,274 @@
     <t>Квартира</t>
   </si>
   <si>
-    <t>Наташа</t>
-  </si>
-  <si>
-    <t>Руденко</t>
-  </si>
-  <si>
-    <t>Ефимовна</t>
+    <t>Albenise</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>Яковлевна</t>
   </si>
   <si>
     <t>Ж</t>
   </si>
   <si>
-    <t>23-03-1971</t>
-  </si>
-  <si>
-    <t>774717133206</t>
-  </si>
-  <si>
-    <t>153820</t>
-  </si>
-  <si>
-    <t>Малайзия</t>
-  </si>
-  <si>
-    <t>﻿Алтайский край</t>
-  </si>
-  <si>
-    <t>Ташкент</t>
-  </si>
-  <si>
-    <t>Спасоглинищевский М. переул.</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Ильин</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
+    <t>16-12-1945</t>
+  </si>
+  <si>
+    <t>770792781784</t>
+  </si>
+  <si>
+    <t>150365</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Чукотский автономный округ</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>6627 Travessa dos martírios</t>
+  </si>
+  <si>
+    <t>Cinira</t>
+  </si>
+  <si>
+    <t>Fernandes</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>15-06-1964</t>
+  </si>
+  <si>
+    <t>772172911444</t>
+  </si>
+  <si>
+    <t>166893</t>
+  </si>
+  <si>
+    <t>Бутан</t>
+  </si>
+  <si>
+    <t>Рязанская область</t>
+  </si>
+  <si>
+    <t>Itaquaquecetuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1021 Rua amazonas </t>
+  </si>
+  <si>
+    <t>Sharita</t>
+  </si>
+  <si>
+    <t>Van de kraats</t>
+  </si>
+  <si>
+    <t>Ильинична</t>
+  </si>
+  <si>
+    <t>23-11-1988</t>
+  </si>
+  <si>
+    <t>772628920590</t>
+  </si>
+  <si>
+    <t>104041</t>
+  </si>
+  <si>
+    <t>Чеченская Республика</t>
+  </si>
+  <si>
+    <t>Ijsselstein</t>
+  </si>
+  <si>
+    <t>4800 Jaarbeursplein</t>
+  </si>
+  <si>
+    <t>Ece</t>
+  </si>
+  <si>
+    <t>Koç</t>
+  </si>
+  <si>
+    <t>Аркадьевна</t>
+  </si>
+  <si>
+    <t>23-11-1965</t>
+  </si>
+  <si>
+    <t>773081099467</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>Тунис</t>
+  </si>
+  <si>
+    <t>Севастополь</t>
+  </si>
+  <si>
+    <t>Burdur</t>
+  </si>
+  <si>
+    <t>5327 Istiklal cd</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>Тарасовна</t>
+  </si>
+  <si>
+    <t>02-11-1980</t>
+  </si>
+  <si>
+    <t>772515623236</t>
+  </si>
+  <si>
+    <t>197316</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Омская область</t>
+  </si>
+  <si>
+    <t>Las cruces</t>
+  </si>
+  <si>
+    <t>2449 Timber wolf trail</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Jasperse</t>
+  </si>
+  <si>
+    <t>Яковлевич</t>
   </si>
   <si>
     <t>М</t>
   </si>
   <si>
-    <t>04-04-1937</t>
-  </si>
-  <si>
-    <t>770985743591</t>
-  </si>
-  <si>
-    <t>173117</t>
-  </si>
-  <si>
-    <t>Киргизия</t>
-  </si>
-  <si>
-    <t>Хабаровский край</t>
-  </si>
-  <si>
-    <t>Сочи</t>
-  </si>
-  <si>
-    <t>Машкова</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>Хованская</t>
-  </si>
-  <si>
-    <t>Ильинична</t>
-  </si>
-  <si>
-    <t>02-05-2000</t>
-  </si>
-  <si>
-    <t>773003237085</t>
-  </si>
-  <si>
-    <t>157849</t>
-  </si>
-  <si>
-    <t>Япония</t>
-  </si>
-  <si>
-    <t>Ульяновская область</t>
-  </si>
-  <si>
-    <t>София</t>
-  </si>
-  <si>
-    <t>Рождественка</t>
-  </si>
-  <si>
-    <t>Юрий</t>
-  </si>
-  <si>
-    <t>Назаров</t>
-  </si>
-  <si>
-    <t>Витальевич</t>
-  </si>
-  <si>
-    <t>14-12-1948</t>
-  </si>
-  <si>
-    <t>773441949306</t>
-  </si>
-  <si>
-    <t>187849</t>
-  </si>
-  <si>
-    <t>Чукотский автономный округ</t>
-  </si>
-  <si>
-    <t>Кёльн</t>
-  </si>
-  <si>
-    <t>Сухаревская Большая площадь</t>
+    <t>29-05-1959</t>
+  </si>
+  <si>
+    <t>774633075580</t>
+  </si>
+  <si>
+    <t>106545</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>Республика Хакасия</t>
+  </si>
+  <si>
+    <t>Venray</t>
+  </si>
+  <si>
+    <t>1939 Oudegracht</t>
+  </si>
+  <si>
+    <t>Rogier</t>
+  </si>
+  <si>
+    <t>Oud</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>25-06-1949</t>
+  </si>
+  <si>
+    <t>770839493336</t>
+  </si>
+  <si>
+    <t>106077</t>
+  </si>
+  <si>
+    <t>Ямайка</t>
+  </si>
+  <si>
+    <t>Республика Татарстан (Татарстан)</t>
+  </si>
+  <si>
+    <t>Waterland</t>
+  </si>
+  <si>
+    <t>8234 Westerkade</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Афанасьевна</t>
+  </si>
+  <si>
+    <t>31-05-1950</t>
+  </si>
+  <si>
+    <t>772333537504</t>
+  </si>
+  <si>
+    <t>148299</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Кировская область</t>
+  </si>
+  <si>
+    <t>Swords</t>
+  </si>
+  <si>
+    <t>8383 Albert road</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Lepisto</t>
+  </si>
+  <si>
+    <t>11-04-1995</t>
+  </si>
+  <si>
+    <t>770215442316</t>
+  </si>
+  <si>
+    <t>142432</t>
+  </si>
+  <si>
+    <t>Кения</t>
+  </si>
+  <si>
+    <t>Курганская область</t>
+  </si>
+  <si>
+    <t>Jomala</t>
+  </si>
+  <si>
+    <t>504 Myllypuronkatu</t>
   </si>
 </sst>
 </file>
@@ -230,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -291,7 +438,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>47.0</v>
+        <v>73.0</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -318,10 +465,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0</v>
+        <v>56.0</v>
       </c>
       <c r="N2" t="n">
-        <v>123.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
@@ -335,125 +482,345 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>81.0</v>
+        <v>54.0</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
       <c r="M3" t="n">
-        <v>12.0</v>
+        <v>65.0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" t="n">
-        <v>47.0</v>
+        <v>146.0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>239.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="M5" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>143.0</v>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>58.0</v>
       </c>
     </row>
   </sheetData>
